--- a/database/cp.xlsx
+++ b/database/cp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>시간</t>
   </si>
@@ -37,22 +37,34 @@
     <t>회전수(Hz)</t>
   </si>
   <si>
-    <t>2015-08-11 21:50</t>
+    <t>2015-09-07 10:10</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>수동</t>
-  </si>
-  <si>
-    <t>2015-08-11 21:23</t>
-  </si>
-  <si>
-    <t>2015-08-11 19:24</t>
-  </si>
-  <si>
     <t>자동</t>
+  </si>
+  <si>
+    <t>2015-09-07 10:00</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:50</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:40</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:30</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:20</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:10</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:00</t>
   </si>
 </sst>
 </file>
@@ -96,12 +108,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,89 +468,234 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>0</v>
       </c>
     </row>

--- a/database/cp.xlsx
+++ b/database/cp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>시간</t>
   </si>
@@ -37,7 +37,7 @@
     <t>회전수(Hz)</t>
   </si>
   <si>
-    <t>2015-09-07 10:10</t>
+    <t>2015-09-09 11:10</t>
   </si>
   <si>
     <t>OFF</t>
@@ -46,25 +46,16 @@
     <t>자동</t>
   </si>
   <si>
-    <t>2015-09-07 10:00</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:50</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:40</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:30</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:20</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:10</t>
-  </si>
-  <si>
-    <t>2015-09-07 09:00</t>
+    <t>2015-09-09 11:00</t>
+  </si>
+  <si>
+    <t>2015-09-09 10:50</t>
+  </si>
+  <si>
+    <t>2015-09-09 10:40</t>
+  </si>
+  <si>
+    <t>2015-09-09 10:20</t>
   </si>
 </sst>
 </file>
@@ -413,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,93 +603,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>

--- a/database/cp.xlsx
+++ b/database/cp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="46">
   <si>
     <t>시간</t>
   </si>
@@ -37,25 +37,121 @@
     <t>회전수(Hz)</t>
   </si>
   <si>
-    <t>2015-09-09 11:10</t>
+    <t>2015-09-11 17:00</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
+    <t>수동</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
     <t>자동</t>
   </si>
   <si>
-    <t>2015-09-09 11:00</t>
-  </si>
-  <si>
-    <t>2015-09-09 10:50</t>
-  </si>
-  <si>
-    <t>2015-09-09 10:40</t>
-  </si>
-  <si>
-    <t>2015-09-09 10:20</t>
+    <t>2015-09-11 16:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 15:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 14:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 13:50</t>
+  </si>
+  <si>
+    <t>2015-09-11 13:40</t>
+  </si>
+  <si>
+    <t>2015-09-11 13:30</t>
+  </si>
+  <si>
+    <t>2015-09-11 13:20</t>
+  </si>
+  <si>
+    <t>2015-09-11 13:10</t>
+  </si>
+  <si>
+    <t>2015-09-11 13:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 12:50</t>
+  </si>
+  <si>
+    <t>2015-09-11 12:40</t>
+  </si>
+  <si>
+    <t>2015-09-11 12:30</t>
+  </si>
+  <si>
+    <t>2015-09-11 12:20</t>
+  </si>
+  <si>
+    <t>2015-09-11 12:10</t>
+  </si>
+  <si>
+    <t>2015-09-11 12:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 11:50</t>
+  </si>
+  <si>
+    <t>2015-09-11 11:40</t>
+  </si>
+  <si>
+    <t>2015-09-11 11:30</t>
+  </si>
+  <si>
+    <t>2015-09-11 11:20</t>
+  </si>
+  <si>
+    <t>2015-09-11 11:10</t>
+  </si>
+  <si>
+    <t>2015-09-11 11:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 10:50</t>
+  </si>
+  <si>
+    <t>2015-09-11 10:40</t>
+  </si>
+  <si>
+    <t>2015-09-11 10:30</t>
+  </si>
+  <si>
+    <t>2015-09-11 10:20</t>
+  </si>
+  <si>
+    <t>2015-09-11 10:10</t>
+  </si>
+  <si>
+    <t>2015-09-11 10:00</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:50</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:40</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:30</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:20</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:10</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:08</t>
+  </si>
+  <si>
+    <t>2015-09-11 09:07</t>
   </si>
 </sst>
 </file>
@@ -99,13 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,174 +525,1075 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2">
+        <v>211</v>
+      </c>
+      <c r="I19" s="2">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="2">
+        <v>211</v>
+      </c>
+      <c r="I20" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="2">
+        <v>211</v>
+      </c>
+      <c r="I21" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
         <v>0</v>
       </c>
     </row>
